--- a/Price comparisons.xlsx
+++ b/Price comparisons.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>Buk Bunga</t>
   </si>
@@ -47,6 +47,12 @@
     <t>VS</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -56,10 +62,25 @@
     <t>celery</t>
   </si>
   <si>
+    <t>bar &amp; table</t>
+  </si>
+  <si>
+    <t>cocktail napkin</t>
+  </si>
+  <si>
     <t>shimeji white (150)</t>
   </si>
   <si>
+    <t>Dinner napkin (Long Tissue)</t>
+  </si>
+  <si>
+    <t>interfold maxisafe pop up</t>
+  </si>
+  <si>
     <t>eggplant</t>
+  </si>
+  <si>
+    <t>Toilet</t>
   </si>
   <si>
     <t>cucumber</t>
@@ -1563,10 +1584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L588"/>
+  <dimension ref="A1:N588"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E53" sqref="E49:E53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1580,6 +1601,8 @@
     <col min="7" max="7" width="4.71428571428571" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.3809523809524" customWidth="1"/>
     <col min="9" max="9" width="40.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="14" width="26.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1601,7 +1624,7 @@
       </c>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" ht="18.75" spans="1:9">
+    <row r="2" ht="18.75" spans="1:14">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1629,10 +1652,16 @@
       <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1640,7 +1669,7 @@
         <v>36000</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="13">
         <v>36000</v>
@@ -1650,12 +1679,18 @@
         <v>72000</v>
       </c>
       <c r="I3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -1663,7 +1698,7 @@
         <v>15000</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" s="13">
         <v>15000</v>
@@ -1673,12 +1708,18 @@
         <v>18000</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13">
         <v>12000</v>
@@ -1688,7 +1729,7 @@
         <v>12000</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" s="13">
         <v>12000</v>
@@ -1698,12 +1739,15 @@
         <v>11000</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13">
         <v>15000</v>
@@ -1713,7 +1757,7 @@
         <v>10000</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="13">
         <v>10000</v>
@@ -1723,12 +1767,12 @@
         <v>17000</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="13">
         <v>15000</v>
@@ -1738,7 +1782,7 @@
         <v>12000</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="13">
         <v>12000</v>
@@ -1748,12 +1792,12 @@
         <v>22000</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13">
         <v>15000</v>
@@ -1763,7 +1807,7 @@
         <v>19000</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="13">
         <v>19000</v>
@@ -1773,12 +1817,12 @@
         <v>25000</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B9" s="13">
         <v>25000</v>
@@ -1788,7 +1832,7 @@
         <v>21000</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" s="13">
         <v>21000</v>
@@ -1798,12 +1842,12 @@
         <v>25000</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" s="13">
         <v>60000</v>
@@ -1813,7 +1857,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13">
         <v>50000</v>
@@ -1823,12 +1867,12 @@
         <v>72000</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11">
         <v>150000</v>
@@ -1838,7 +1882,7 @@
         <v>75000</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F11" s="13">
         <v>75000</v>
@@ -1848,12 +1892,12 @@
         <v>121000</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="13">
         <v>60000</v>
@@ -1863,7 +1907,7 @@
         <v>45000</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" s="13">
         <v>45000</v>
@@ -1873,12 +1917,12 @@
         <v>72000</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B13" s="13">
         <v>35000</v>
@@ -1888,7 +1932,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F13" s="13">
         <v>18000</v>
@@ -1898,12 +1942,12 @@
         <v>50000</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B14" s="13">
         <v>30000</v>
@@ -1913,7 +1957,7 @@
         <v>25000</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F14" s="13">
         <v>25000</v>
@@ -1923,12 +1967,12 @@
         <v>50000</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" s="13">
         <v>50000</v>
@@ -1938,7 +1982,7 @@
         <v>45000</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F15" s="13">
         <v>45000</v>
@@ -1948,12 +1992,12 @@
         <v>83000</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="13">
         <v>60000</v>
@@ -1963,7 +2007,7 @@
         <v>38000</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F16" s="13">
         <v>38000</v>
@@ -1971,12 +2015,12 @@
       <c r="G16" s="15"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B17" s="13">
         <v>80000</v>
@@ -1986,7 +2030,7 @@
         <v>45000</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F17" s="13">
         <v>45000</v>
@@ -1996,12 +2040,12 @@
         <v>72000</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -2009,7 +2053,7 @@
         <v>199400</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F18" s="13">
         <v>199400</v>
@@ -2019,12 +2063,12 @@
         <v>300000</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B19" s="13">
         <v>100000</v>
@@ -2034,7 +2078,7 @@
         <v>55000</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F19" s="18">
         <v>55000</v>
@@ -2044,12 +2088,12 @@
         <v>105000</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B20" s="13">
         <v>80000</v>
@@ -2059,7 +2103,7 @@
         <v>30000</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F20" s="13">
         <v>30000</v>
@@ -2069,12 +2113,12 @@
         <v>66000</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B21" s="13">
         <v>25000</v>
@@ -2084,7 +2128,7 @@
         <v>30000</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F21" s="13">
         <v>30000</v>
@@ -2094,12 +2138,12 @@
         <v>39000</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -2107,7 +2151,7 @@
         <v>28000</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F22" s="13">
         <v>28000</v>
@@ -2117,12 +2161,12 @@
         <v>35000</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B23" s="13">
         <v>45000</v>
@@ -2132,7 +2176,7 @@
         <v>46000</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F23" s="13">
         <v>46000</v>
@@ -2142,12 +2186,12 @@
         <v>50000</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="13">
         <v>25000</v>
@@ -2157,7 +2201,7 @@
         <v>22000</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F24" s="13">
         <v>22000</v>
@@ -2167,12 +2211,12 @@
         <v>26000</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B25" s="13">
         <v>50000</v>
@@ -2182,7 +2226,7 @@
         <v>9000</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F25" s="13">
         <v>9000</v>
@@ -2190,19 +2234,19 @@
       <c r="G25" s="15"/>
       <c r="H25" s="13"/>
       <c r="I25" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -2210,7 +2254,7 @@
         <v>38000</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F26" s="13">
         <v>38000</v>
@@ -2220,12 +2264,12 @@
         <v>29000</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -2233,7 +2277,7 @@
         <v>28000</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F27" s="13">
         <v>28000</v>
@@ -2243,12 +2287,12 @@
         <v>44000</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B28" s="13">
         <v>70000</v>
@@ -2258,7 +2302,7 @@
         <v>45000</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F28" s="13">
         <v>45000</v>
@@ -2268,12 +2312,12 @@
         <v>61000</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -2281,7 +2325,7 @@
         <v>40000</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F29" s="13">
         <v>40000</v>
@@ -2291,12 +2335,12 @@
         <v>61000</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B30" s="13">
         <v>60000</v>
@@ -2306,7 +2350,7 @@
         <v>50000</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F30" s="13">
         <v>50000</v>
@@ -2316,12 +2360,12 @@
         <v>72000</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B31" s="13">
         <v>35000</v>
@@ -2331,7 +2375,7 @@
         <v>26000</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F31" s="13">
         <v>26000</v>
@@ -2339,12 +2383,12 @@
       <c r="G31" s="15"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B32" s="13">
         <v>60000</v>
@@ -2354,7 +2398,7 @@
         <v>58000</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F32" s="13">
         <v>58000</v>
@@ -2364,12 +2408,12 @@
         <v>66000</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B33" s="13">
         <v>38000</v>
@@ -2379,7 +2423,7 @@
         <v>32000</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F33" s="13">
         <v>32000</v>
@@ -2389,12 +2433,12 @@
         <v>39000</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B34" s="13">
         <v>80000</v>
@@ -2404,7 +2448,7 @@
         <v>44000</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F34" s="13">
         <v>44000</v>
@@ -2414,12 +2458,12 @@
         <v>75000</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B35" s="13">
         <v>30000</v>
@@ -2429,7 +2473,7 @@
         <v>22000</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F35" s="13">
         <v>22000</v>
@@ -2439,12 +2483,12 @@
         <v>33000</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13">
         <v>30000</v>
@@ -2454,7 +2498,7 @@
         <v>22000</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F36" s="13">
         <v>22000</v>
@@ -2464,12 +2508,12 @@
         <v>29000</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B37" s="13">
         <v>35000</v>
@@ -2479,7 +2523,7 @@
         <v>35000</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F37" s="13">
         <v>35000</v>
@@ -2489,12 +2533,12 @@
         <v>44000</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B38" s="13">
         <v>10000</v>
@@ -2504,7 +2548,7 @@
         <v>8000</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F38" s="13">
         <v>8000</v>
@@ -2514,12 +2558,12 @@
         <v>10000</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B39" s="13">
         <v>15000</v>
@@ -2529,7 +2573,7 @@
         <v>12000</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F39" s="13">
         <v>12000</v>
@@ -2539,12 +2583,12 @@
         <v>16000</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B40" s="13">
         <v>100000</v>
@@ -2554,7 +2598,7 @@
         <v>55000</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F40" s="13">
         <v>55000</v>
@@ -2564,12 +2608,12 @@
         <v>83000</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B41" s="13">
         <v>125000</v>
@@ -2579,7 +2623,7 @@
         <v>98000</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F41" s="13">
         <v>98000</v>
@@ -2587,12 +2631,12 @@
       <c r="G41" s="15"/>
       <c r="H41" s="13"/>
       <c r="I41" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B42" s="13">
         <v>150000</v>
@@ -2602,7 +2646,7 @@
         <v>38000</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F42" s="13">
         <v>38000</v>
@@ -2612,12 +2656,12 @@
         <v>132000</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B43" s="13">
         <v>60000</v>
@@ -2627,7 +2671,7 @@
         <v>28000</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F43" s="13">
         <v>28000</v>
@@ -2637,7 +2681,7 @@
         <v>83000</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2689,7 +2733,7 @@
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="27" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
@@ -2703,7 +2747,7 @@
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="26"/>
@@ -2716,7 +2760,7 @@
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="26"/>
@@ -2729,7 +2773,7 @@
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="26"/>
@@ -2742,7 +2786,7 @@
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F52" s="25"/>
       <c r="G52" s="26"/>
@@ -2755,7 +2799,7 @@
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="26"/>
